--- a/app/tables/maleClients/forms/screenPartner/screenPartner.xlsx
+++ b/app/tables/maleClients/forms/screenPartner/screenPartner.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35600" yWindow="2380" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="35600" yWindow="2380" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="207">
   <si>
     <t>type</t>
   </si>
@@ -596,6 +596,54 @@
   </si>
   <si>
     <t>maleClients</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a888</t>
+  </si>
+  <si>
+    <t>a999</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a-777</t>
+  </si>
+  <si>
+    <t>a-888</t>
+  </si>
+  <si>
+    <t>a-999</t>
   </si>
 </sst>
 </file>
@@ -672,7 +720,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="245">
+  <cellStyleXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -918,8 +966,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -929,9 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -976,7 +1025,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="245">
+  <cellStyles count="249">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1099,6 +1148,8 @@
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1221,6 +1272,8 @@
     <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1567,13 +1620,13 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="51.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="10.83203125" style="18"/>
+    <col min="9" max="9" width="10.83203125" style="17"/>
     <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1581,13 +1634,13 @@
       <c r="A1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1602,7 +1655,7 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1628,11 +1681,11 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>146</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1641,7 +1694,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="15"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1650,34 +1703,34 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>147</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="45">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1686,16 +1739,16 @@
       <c r="F5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="135">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1703,28 +1756,28 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>150</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="45">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="12" t="s">
         <v>151</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1732,10 +1785,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="90">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>152</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1744,7 +1797,7 @@
       <c r="F9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1752,19 +1805,19 @@
       <c r="A10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>153</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>154</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1772,10 +1825,10 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1783,27 +1836,27 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="30">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1811,10 +1864,10 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>157</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1827,13 +1880,13 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="30">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1841,10 +1894,10 @@
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1852,13 +1905,13 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="210">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>159</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1867,42 +1920,42 @@
       <c r="H19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>160</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="30">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>162</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1910,53 +1963,53 @@
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>163</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="60">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>164</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="75">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>166</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1964,11 +2017,11 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="75">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="12" t="s">
         <v>167</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1979,13 +2032,13 @@
       </c>
     </row>
     <row r="28" spans="2:9" s="3" customFormat="1" ht="60">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>168</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1994,41 +2047,41 @@
       <c r="F28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="16"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="2:9" ht="45">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>169</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="17"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>170</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="17"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" ht="60">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="12" t="s">
         <v>171</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2036,10 +2089,10 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="30">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>172</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2061,14 +2114,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="22.1640625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -2077,7 +2130,7 @@
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2088,8 +2141,8 @@
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -2099,8 +2152,8 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -2110,8 +2163,8 @@
       <c r="A4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="2">
-        <v>888</v>
+      <c r="B4" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
@@ -2121,8 +2174,8 @@
       <c r="A5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="B5" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2132,8 +2185,8 @@
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
+      <c r="B6" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -2143,8 +2196,8 @@
       <c r="A7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="2">
-        <v>888</v>
+      <c r="B7" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>76</v>
@@ -2154,8 +2207,8 @@
       <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="2">
-        <v>888</v>
+      <c r="B8" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>76</v>
@@ -2165,8 +2218,8 @@
       <c r="A9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="2">
-        <v>999</v>
+      <c r="B9" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>66</v>
@@ -2176,8 +2229,8 @@
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
+      <c r="B10" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -2187,8 +2240,8 @@
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2">
-        <v>2</v>
+      <c r="B11" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -2198,8 +2251,8 @@
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
+      <c r="B12" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -2209,8 +2262,8 @@
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2">
-        <v>2</v>
+      <c r="B13" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -2220,8 +2273,8 @@
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2">
-        <v>3</v>
+      <c r="B14" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -2231,8 +2284,8 @@
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2">
-        <v>4</v>
+      <c r="B15" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -2242,8 +2295,8 @@
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
-        <v>5</v>
+      <c r="B16" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -2253,8 +2306,8 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2">
-        <v>6</v>
+      <c r="B17" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -2264,8 +2317,8 @@
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4">
-        <v>7</v>
+      <c r="B18" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -2275,8 +2328,8 @@
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4">
-        <v>888</v>
+      <c r="B19" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>76</v>
@@ -2286,8 +2339,8 @@
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
+      <c r="B20" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>37</v>
@@ -2297,8 +2350,8 @@
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2">
-        <v>2</v>
+      <c r="B21" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
@@ -2308,8 +2361,8 @@
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2">
-        <v>3</v>
+      <c r="B22" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -2319,8 +2372,8 @@
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2">
-        <v>4</v>
+      <c r="B23" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>40</v>
@@ -2330,8 +2383,8 @@
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2">
-        <v>5</v>
+      <c r="B24" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>41</v>
@@ -2341,8 +2394,8 @@
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2">
-        <v>6</v>
+      <c r="B25" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>42</v>
@@ -2352,8 +2405,8 @@
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2">
-        <v>7</v>
+      <c r="B26" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>43</v>
@@ -2363,8 +2416,8 @@
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2">
-        <v>8</v>
+      <c r="B27" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>44</v>
@@ -2374,8 +2427,8 @@
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="2">
-        <v>9</v>
+      <c r="B28" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>36</v>
@@ -2385,8 +2438,8 @@
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="2">
-        <v>10</v>
+      <c r="B29" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>34</v>
@@ -2396,8 +2449,8 @@
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="2">
-        <v>888</v>
+      <c r="B30" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>76</v>
@@ -2407,8 +2460,8 @@
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2">
-        <v>0</v>
+      <c r="B31" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>77</v>
@@ -2418,8 +2471,8 @@
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
+      <c r="B32" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>46</v>
@@ -2429,8 +2482,8 @@
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="2">
-        <v>2</v>
+      <c r="B33" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -2440,8 +2493,8 @@
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="2">
-        <v>3</v>
+      <c r="B34" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
@@ -2451,8 +2504,8 @@
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="2">
-        <v>4</v>
+      <c r="B35" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>78</v>
@@ -2462,8 +2515,8 @@
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="2">
-        <v>5</v>
+      <c r="B36" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>49</v>
@@ -2473,8 +2526,8 @@
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="2">
-        <v>6</v>
+      <c r="B37" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>65</v>
@@ -2484,8 +2537,8 @@
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="2">
-        <v>7</v>
+      <c r="B38" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>34</v>
@@ -2495,8 +2548,8 @@
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="2">
-        <v>888</v>
+      <c r="B39" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>76</v>
@@ -2506,8 +2559,8 @@
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="2">
-        <v>0</v>
+      <c r="B40" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>62</v>
@@ -2517,8 +2570,8 @@
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
+      <c r="B41" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>51</v>
@@ -2528,8 +2581,8 @@
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="2">
-        <v>2</v>
+      <c r="B42" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>52</v>
@@ -2539,8 +2592,8 @@
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="2">
-        <v>3</v>
+      <c r="B43" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>53</v>
@@ -2550,8 +2603,8 @@
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="2">
-        <v>4</v>
+      <c r="B44" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>54</v>
@@ -2561,8 +2614,8 @@
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="2">
-        <v>888</v>
+      <c r="B45" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>76</v>
@@ -2572,8 +2625,8 @@
       <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="2">
-        <v>0</v>
+      <c r="B46" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>56</v>
@@ -2583,8 +2636,8 @@
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="2">
-        <v>1</v>
+      <c r="B47" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>57</v>
@@ -2594,8 +2647,8 @@
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="2">
-        <v>2</v>
+      <c r="B48" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>58</v>
@@ -2605,8 +2658,8 @@
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="2">
-        <v>3</v>
+      <c r="B49" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>59</v>
@@ -2616,8 +2669,8 @@
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="2">
-        <v>4</v>
+      <c r="B50" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>61</v>
@@ -2627,8 +2680,8 @@
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="2">
-        <v>5</v>
+      <c r="B51" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>60</v>
@@ -2638,8 +2691,8 @@
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="2">
-        <v>888</v>
+      <c r="B52" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>76</v>
@@ -2649,8 +2702,8 @@
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="2">
-        <v>1</v>
+      <c r="B53" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>81</v>
@@ -2660,8 +2713,8 @@
       <c r="A54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="2">
-        <v>2</v>
+      <c r="B54" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>82</v>
@@ -2671,8 +2724,8 @@
       <c r="A55" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="2">
-        <v>3</v>
+      <c r="B55" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>83</v>
@@ -2682,8 +2735,8 @@
       <c r="A56" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="2">
-        <v>4</v>
+      <c r="B56" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>84</v>
@@ -2693,8 +2746,8 @@
       <c r="A57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="2">
-        <v>1</v>
+      <c r="B57" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>86</v>
@@ -2704,8 +2757,8 @@
       <c r="A58" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="2">
-        <v>2</v>
+      <c r="B58" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>88</v>
@@ -2715,8 +2768,8 @@
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="2">
-        <v>3</v>
+      <c r="B59" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>87</v>
@@ -2726,8 +2779,8 @@
       <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="2">
-        <v>999</v>
+      <c r="B60" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>74</v>
@@ -2737,8 +2790,8 @@
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="2">
-        <v>0</v>
+      <c r="B61" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>72</v>
@@ -2748,8 +2801,8 @@
       <c r="A62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="2">
-        <v>1</v>
+      <c r="B62" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>73</v>
@@ -2759,8 +2812,8 @@
       <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="2">
-        <v>888</v>
+      <c r="B63" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>76</v>
@@ -2770,8 +2823,8 @@
       <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="2">
-        <v>999</v>
+      <c r="B64" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>74</v>
@@ -2781,8 +2834,8 @@
       <c r="A65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="2">
-        <v>1</v>
+      <c r="B65" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
@@ -2792,8 +2845,8 @@
       <c r="A66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="2">
-        <v>0</v>
+      <c r="B66" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
@@ -2803,8 +2856,8 @@
       <c r="A67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="2">
-        <v>888</v>
+      <c r="B67" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>76</v>
@@ -2814,8 +2867,8 @@
       <c r="A68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2">
-        <v>999</v>
+      <c r="B68" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>74</v>
@@ -2825,8 +2878,8 @@
       <c r="A69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="2">
-        <v>-777</v>
+      <c r="B69" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>92</v>
@@ -2836,8 +2889,8 @@
       <c r="A70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="2">
-        <v>-888</v>
+      <c r="B70" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>93</v>
@@ -2847,8 +2900,8 @@
       <c r="A71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="2">
-        <v>-999</v>
+      <c r="B71" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>74</v>
@@ -2858,8 +2911,8 @@
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="2">
-        <v>1</v>
+      <c r="B72" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>95</v>
@@ -2869,8 +2922,8 @@
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="2">
-        <v>0</v>
+      <c r="B73" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>97</v>
@@ -2880,8 +2933,8 @@
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="2">
-        <v>2</v>
+      <c r="B74" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>96</v>
@@ -2891,8 +2944,8 @@
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="2">
-        <v>999</v>
+      <c r="B75" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>74</v>
@@ -2902,8 +2955,8 @@
       <c r="A76" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="2">
-        <v>1</v>
+      <c r="B76" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>100</v>
@@ -2913,8 +2966,8 @@
       <c r="A77" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="2">
-        <v>2</v>
+      <c r="B77" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>99</v>
@@ -2924,8 +2977,8 @@
       <c r="A78" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="2">
-        <v>3</v>
+      <c r="B78" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>74</v>
@@ -2935,8 +2988,8 @@
       <c r="A79" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="2">
-        <v>1</v>
+      <c r="B79" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>108</v>
@@ -2946,8 +2999,8 @@
       <c r="A80" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B80" s="2">
-        <v>2</v>
+      <c r="B80" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>107</v>
@@ -2957,8 +3010,8 @@
       <c r="A81" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="2">
-        <v>3</v>
+      <c r="B81" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>106</v>
@@ -2968,8 +3021,8 @@
       <c r="A82" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="2">
-        <v>4</v>
+      <c r="B82" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>105</v>
@@ -2979,8 +3032,8 @@
       <c r="A83" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="2">
-        <v>5</v>
+      <c r="B83" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>104</v>
@@ -2990,8 +3043,8 @@
       <c r="A84" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="2">
-        <v>6</v>
+      <c r="B84" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>34</v>
@@ -3001,8 +3054,8 @@
       <c r="A85" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="2">
-        <v>888</v>
+      <c r="B85" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>76</v>
@@ -3012,8 +3065,8 @@
       <c r="A86" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="2">
-        <v>0</v>
+      <c r="B86" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>72</v>
@@ -3023,8 +3076,8 @@
       <c r="A87" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B87" s="2">
-        <v>1</v>
+      <c r="B87" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>73</v>
@@ -3034,8 +3087,8 @@
       <c r="A88" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="2">
-        <v>1</v>
+      <c r="B88" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>112</v>
@@ -3045,8 +3098,8 @@
       <c r="A89" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="2">
-        <v>1</v>
+      <c r="B89" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>130</v>
@@ -3056,8 +3109,8 @@
       <c r="A90" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="2">
-        <v>0</v>
+      <c r="B90" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>120</v>
@@ -3067,8 +3120,8 @@
       <c r="A91" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="2">
-        <v>1</v>
+      <c r="B91" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>122</v>
@@ -3078,8 +3131,8 @@
       <c r="A92" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B92" s="2">
-        <v>0</v>
+      <c r="B92" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>123</v>
@@ -3089,8 +3142,8 @@
       <c r="A93" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B93" s="2">
-        <v>1</v>
+      <c r="B93" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
@@ -3100,8 +3153,8 @@
       <c r="A94" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B94" s="2">
-        <v>0</v>
+      <c r="B94" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
@@ -3111,8 +3164,8 @@
       <c r="A95" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B95" s="2">
-        <v>2</v>
+      <c r="B95" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>129</v>
@@ -3133,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3144,7 +3197,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B1" t="s">
@@ -3155,7 +3208,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B2" t="s">

--- a/app/tables/maleClients/forms/screenPartner/screenPartner.xlsx
+++ b/app/tables/maleClients/forms/screenPartner/screenPartner.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35600" yWindow="2380" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="206">
   <si>
     <t>type</t>
   </si>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>display.hint</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>choice_list_name</t>
@@ -971,7 +968,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1015,13 +1012,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1608,13 +1611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1626,7 +1629,7 @@
     <col min="5" max="5" width="51.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="10.83203125" style="17"/>
+    <col min="9" max="9" width="10.83203125" style="15"/>
     <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1694,7 +1697,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="14"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1712,7 +1715,7 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1">
       <c r="B4" s="9" t="s">
@@ -1724,7 +1727,7 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="45">
       <c r="B5" s="9" t="s">
@@ -1739,8 +1742,8 @@
       <c r="F5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>180</v>
+      <c r="I5" s="18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="135">
@@ -1754,6 +1757,7 @@
       <c r="E6" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="10" t="s">
@@ -1768,8 +1772,8 @@
       <c r="E7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>180</v>
+      <c r="I7" s="19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="45">
@@ -1783,6 +1787,7 @@
       <c r="E8" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:16" ht="90">
       <c r="B9" s="10" t="s">
@@ -1797,8 +1802,8 @@
       <c r="F9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>180</v>
+      <c r="I9" s="19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1809,6 +1814,7 @@
         <v>153</v>
       </c>
       <c r="F10" s="3"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="10" t="s">
@@ -1823,6 +1829,7 @@
       <c r="E11" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="10" t="s">
@@ -1834,6 +1841,7 @@
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:16" ht="30">
       <c r="B13" s="10" t="s">
@@ -1848,6 +1856,7 @@
       <c r="E13" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="10" t="s">
@@ -1862,6 +1871,7 @@
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="10" t="s">
@@ -1873,11 +1883,13 @@
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="2:9" ht="30">
       <c r="B17" s="10" t="s">
@@ -1892,6 +1904,7 @@
       <c r="E17" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="10" t="s">
@@ -1903,6 +1916,7 @@
       <c r="E18" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:9" ht="210">
       <c r="B19" s="10" t="s">
@@ -1920,8 +1934,8 @@
       <c r="H19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>180</v>
+      <c r="I19" s="19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -1934,7 +1948,7 @@
       <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:9" ht="30">
       <c r="B21" s="10" t="s">
@@ -1946,7 +1960,7 @@
       <c r="E21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="10" t="s">
@@ -1961,6 +1975,7 @@
       <c r="E22" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="10" t="s">
@@ -1975,7 +1990,7 @@
       <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="2:9" ht="60">
       <c r="B24" s="10" t="s">
@@ -1990,6 +2005,7 @@
       <c r="F24" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="10" t="s">
@@ -2001,6 +2017,7 @@
       <c r="E25" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="2:9" ht="75">
       <c r="B26" s="11" t="s">
@@ -2015,6 +2032,7 @@
       <c r="E26" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="2:9" ht="75">
       <c r="B27" s="11" t="s">
@@ -2030,6 +2048,7 @@
       <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="2:9" s="3" customFormat="1" ht="60">
       <c r="B28" s="11" t="s">
@@ -2047,7 +2066,7 @@
       <c r="F28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="2:9" ht="45">
       <c r="B29" s="10" t="s">
@@ -2062,7 +2081,7 @@
       <c r="E29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="10" t="s">
@@ -2074,7 +2093,7 @@
       <c r="E30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="2:9" ht="60">
       <c r="B31" s="11" t="s">
@@ -2087,6 +2106,7 @@
       <c r="E31" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="2:9" ht="30">
       <c r="B32" s="10" t="s">
@@ -2098,6 +2118,106 @@
       <c r="E32" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="19"/>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="19"/>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" s="19"/>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="19"/>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2114,7 +2234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2128,10 +2248,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>178</v>
@@ -2142,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -2153,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -2164,7 +2284,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
@@ -2175,7 +2295,7 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2186,7 +2306,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -2197,7 +2317,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>76</v>
@@ -2208,7 +2328,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>76</v>
@@ -2219,7 +2339,7 @@
         <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>66</v>
@@ -2230,7 +2350,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -2241,7 +2361,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -2252,7 +2372,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -2263,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -2274,7 +2394,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -2285,7 +2405,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -2296,7 +2416,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -2307,7 +2427,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -2318,7 +2438,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -2329,7 +2449,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>76</v>
@@ -2340,7 +2460,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>37</v>
@@ -2351,7 +2471,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
@@ -2362,7 +2482,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -2373,7 +2493,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>40</v>
@@ -2384,7 +2504,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>41</v>
@@ -2395,7 +2515,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>42</v>
@@ -2406,7 +2526,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>43</v>
@@ -2417,7 +2537,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>44</v>
@@ -2428,7 +2548,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>36</v>
@@ -2439,7 +2559,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>34</v>
@@ -2450,7 +2570,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>76</v>
@@ -2461,7 +2581,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>77</v>
@@ -2472,7 +2592,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>46</v>
@@ -2483,7 +2603,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -2494,7 +2614,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
@@ -2505,7 +2625,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>78</v>
@@ -2516,7 +2636,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>49</v>
@@ -2527,7 +2647,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>65</v>
@@ -2538,7 +2658,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>34</v>
@@ -2549,7 +2669,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>76</v>
@@ -2560,7 +2680,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>62</v>
@@ -2571,7 +2691,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>51</v>
@@ -2582,7 +2702,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>52</v>
@@ -2593,7 +2713,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>53</v>
@@ -2604,7 +2724,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>54</v>
@@ -2615,7 +2735,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>76</v>
@@ -2626,7 +2746,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>56</v>
@@ -2637,7 +2757,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>57</v>
@@ -2648,7 +2768,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>58</v>
@@ -2659,7 +2779,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>59</v>
@@ -2670,7 +2790,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>61</v>
@@ -2681,7 +2801,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>60</v>
@@ -2692,7 +2812,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>76</v>
@@ -2703,7 +2823,7 @@
         <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>81</v>
@@ -2714,7 +2834,7 @@
         <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>82</v>
@@ -2725,7 +2845,7 @@
         <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>83</v>
@@ -2736,7 +2856,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>84</v>
@@ -2747,7 +2867,7 @@
         <v>68</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>86</v>
@@ -2758,7 +2878,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>88</v>
@@ -2769,7 +2889,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>87</v>
@@ -2780,7 +2900,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>74</v>
@@ -2791,7 +2911,7 @@
         <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>72</v>
@@ -2802,7 +2922,7 @@
         <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>73</v>
@@ -2813,7 +2933,7 @@
         <v>71</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>76</v>
@@ -2824,7 +2944,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>74</v>
@@ -2835,7 +2955,7 @@
         <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
@@ -2846,7 +2966,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
@@ -2857,7 +2977,7 @@
         <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>76</v>
@@ -2868,7 +2988,7 @@
         <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>74</v>
@@ -2879,7 +2999,7 @@
         <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>92</v>
@@ -2890,7 +3010,7 @@
         <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>93</v>
@@ -2901,7 +3021,7 @@
         <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>74</v>
@@ -2912,7 +3032,7 @@
         <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>95</v>
@@ -2923,7 +3043,7 @@
         <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>97</v>
@@ -2934,7 +3054,7 @@
         <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>96</v>
@@ -2945,7 +3065,7 @@
         <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>74</v>
@@ -2956,7 +3076,7 @@
         <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>100</v>
@@ -2967,7 +3087,7 @@
         <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>99</v>
@@ -2978,7 +3098,7 @@
         <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>74</v>
@@ -2989,7 +3109,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>108</v>
@@ -3000,7 +3120,7 @@
         <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>107</v>
@@ -3011,7 +3131,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>106</v>
@@ -3022,7 +3142,7 @@
         <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>105</v>
@@ -3033,7 +3153,7 @@
         <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>104</v>
@@ -3044,7 +3164,7 @@
         <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>34</v>
@@ -3055,7 +3175,7 @@
         <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>76</v>
@@ -3066,7 +3186,7 @@
         <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>72</v>
@@ -3077,7 +3197,7 @@
         <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>73</v>
@@ -3088,7 +3208,7 @@
         <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>112</v>
@@ -3099,7 +3219,7 @@
         <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>130</v>
@@ -3110,7 +3230,7 @@
         <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>120</v>
@@ -3121,7 +3241,7 @@
         <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>122</v>
@@ -3132,7 +3252,7 @@
         <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>123</v>
@@ -3143,7 +3263,7 @@
         <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
@@ -3154,7 +3274,7 @@
         <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
@@ -3165,7 +3285,7 @@
         <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>129</v>
@@ -3198,13 +3318,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
         <v>183</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>184</v>
-      </c>
-      <c r="C1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3217,7 +3337,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -3225,18 +3345,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
         <v>187</v>
-      </c>
-      <c r="C4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
         <v>189</v>
-      </c>
-      <c r="B5" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
